--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -100,10 +100,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>well</t>
@@ -1129,25 +1129,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6566523605150214</v>
+        <v>0.640625</v>
       </c>
       <c r="L19">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1155,25 +1155,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.640625</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1233,25 +1233,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5349544072948328</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L23">
         <v>176</v>
       </c>
       <c r="M23">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="10:17">
